--- a/coef.xlsx
+++ b/coef.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>flag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>speed_p</t>
   </si>
@@ -392,233 +389,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>-1.2548E-2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <v>0.120141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3">
+        <v>0.199296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4">
+        <v>-0.41446100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C5">
+        <v>-0.34421600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C6">
+        <v>0.14204600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C7">
+        <v>-8.4573999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C8">
+        <v>0.410445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C9">
+        <v>0.10549600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C10">
+        <v>3.3672000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C11">
+        <v>-0.117664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.120141</v>
-      </c>
-      <c r="C2">
-        <v>-1.2548E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.120141</v>
-      </c>
-      <c r="E2">
-        <v>0.199296</v>
-      </c>
-      <c r="F2">
-        <v>-0.41446100000000002</v>
-      </c>
-      <c r="G2">
-        <v>-0.34421600000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.14204600000000001</v>
-      </c>
-      <c r="I2">
-        <v>-8.4573999999999996E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.410445</v>
-      </c>
-      <c r="K2">
-        <v>0.10549600000000001</v>
-      </c>
-      <c r="L2">
-        <v>3.3672000000000001E-2</v>
-      </c>
-      <c r="M2">
-        <v>-0.117664</v>
-      </c>
-      <c r="N2">
-        <v>8.2406999999999994E-2</v>
-      </c>
-      <c r="O2">
-        <v>-0.107858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.199296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-0.41446100000000002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>-1.2548E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-0.34421600000000002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.120141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.14204600000000001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0.199296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-8.4573999999999996E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-0.41446100000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.410445</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>-0.34421600000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.10549600000000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>0.14204600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.3672000000000001E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>-8.4573999999999996E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-0.117664</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>0.410445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8.2406999999999994E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>0.10549600000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-0.107858</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>3.3672000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>-0.117664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
+      <c r="C12">
         <v>8.2406999999999994E-2</v>
       </c>
     </row>

--- a/coef.xlsx
+++ b/coef.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="5184"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>speed_p</t>
   </si>
@@ -60,6 +60,62 @@
   </si>
   <si>
     <t>possessionTime</t>
+  </si>
+  <si>
+    <t>持球球员速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接球球员速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持球球员持球时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持球球队持球时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离持球球员最近的防守球员的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d离持球球员距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d离接球球员距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离接球球员最近的防守球员的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d为离传球者和接球者距离相加最近的防守球员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d和传球者的连线与传球线路夹角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1,d2为分别与传球者和接球者最近的球员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d1和传球者的连线与传球线路的夹角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球员d2和接球者的连线与传球线路的夹角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,21 +445,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
       <c r="C1">
         <v>-1.2548E-2</v>
       </c>
@@ -412,6 +472,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2">
         <v>0.120141</v>
       </c>
@@ -420,6 +483,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3">
         <v>0.199296</v>
       </c>
@@ -428,6 +494,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
       <c r="C4">
         <v>-0.41446100000000002</v>
       </c>
@@ -436,6 +505,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5">
         <v>-0.34421600000000002</v>
       </c>
@@ -444,6 +516,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6">
         <v>0.14204600000000001</v>
       </c>
@@ -452,6 +527,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7">
         <v>-8.4573999999999996E-2</v>
       </c>
@@ -460,6 +538,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="C8">
         <v>0.410445</v>
       </c>
@@ -468,6 +549,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9">
         <v>0.10549600000000001</v>
       </c>
@@ -476,6 +560,9 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10">
         <v>3.3672000000000001E-2</v>
       </c>
@@ -484,6 +571,9 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11">
         <v>-0.117664</v>
       </c>
@@ -492,12 +582,26 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12">
         <v>8.2406999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>